--- a/Classes/Attribute.xlsx
+++ b/Classes/Attribute.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MIXITE\Projects\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6295,37 +6295,7 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6658,7 +6628,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8777,40 +8747,37 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B106,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/depth-ft</v>
+        <v>class/attribute/depthbottominterval</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1898</v>
+        <v>1869</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B107,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/depthbottominterval</v>
+        <v>class/attribute/depthbottominterval-ft</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1869</v>
+        <v>1896</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>1366</v>
@@ -8819,55 +8786,58 @@
     <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B108,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/depthbottominterval-ft</v>
+        <v>class/attribute/depthbottomopenzone</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1896</v>
+        <v>1870</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B109,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/depthbottomopenzone</v>
+        <v>class/attribute/depthdeterminationmethod</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1870</v>
+        <v>1676</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B110,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/depthdeterminationmethod</v>
+        <v>class/attribute/depth-ft</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1676</v>
+        <v>1898</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -9574,115 +9544,115 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B148,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevation-ft-msl</v>
+        <v>class/attribute/elevationbottomopenzone-msl</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B149,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevation-m</v>
+        <v>class/attribute/elevationdatum</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1879</v>
+        <v>1856</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B150,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationbottomopenzone-msl</v>
+        <v>class/attribute/elevationdatum-m</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B151,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationdatum</v>
+        <v>class/attribute/elevationdf</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1856</v>
+        <v>1441</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B152,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationdatum-m</v>
+        <v>class/attribute/elevation-ft-msl</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1858</v>
+        <v>1878</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1366</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationdf</v>
+        <v>class/attribute/elevationgl</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1366</v>
@@ -9694,16 +9664,16 @@
     <row r="154" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B154,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationgl</v>
+        <v>class/attribute/elevationgl-ft</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1442</v>
+        <v>1792</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1366</v>
@@ -9711,44 +9681,44 @@
       <c r="G154" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H154" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B155,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationgl-ft</v>
+        <v>class/attribute/elevationgl-m</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B156,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationgl-m</v>
+        <v>class/attribute/elevationkb</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1791</v>
+        <v>1443</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1366</v>
@@ -9760,22 +9730,22 @@
     <row r="157" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B157,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/elevationkb</v>
+        <v>class/attribute/elevation-m</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1443</v>
+        <v>1879</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>417</v>
+      <c r="H157" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -10006,19 +9976,19 @@
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B170,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/eqlog-totaldepth</v>
+        <v>class/attribute/eqlogtemperaturebottom</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1860</v>
+        <v>1803</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1366</v>
@@ -10027,16 +9997,16 @@
     <row r="171" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B171,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/eqlogtemperaturebottom</v>
+        <v>class/attribute/eqlogtemperaturemax</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1366</v>
@@ -10045,16 +10015,16 @@
     <row r="172" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B172,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/eqlogtemperaturemax</v>
+        <v>class/attribute/eqlogtemperaturetop</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1366</v>
@@ -10063,16 +10033,16 @@
     <row r="173" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B173,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/eqlogtemperaturetop</v>
+        <v>class/attribute/eqlog-totaldepth</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1805</v>
+        <v>1860</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1366</v>
@@ -10832,49 +10802,49 @@
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B213,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/fluidtemperature-c</v>
+        <v>class/attribute/fluidtemperaturec</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>545</v>
+        <v>1483</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1808</v>
+        <v>101</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>546</v>
+        <v>100</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B214,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/fluidtemperaturec</v>
+        <v>class/attribute/fluidtemperature-c</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1483</v>
+        <v>545</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>101</v>
+        <v>1808</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>100</v>
+        <v>546</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -11339,19 +11309,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B239,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/grossproduction-mwhr</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>147</v>
+        <v>class/attribute/grossproductioncapacity</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>1366</v>
@@ -11360,16 +11330,16 @@
     <row r="240" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B240,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/grossproductioncapacity</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>591</v>
+        <v>class/attribute/grossproduction-mwhr</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>1366</v>
@@ -12775,7 +12745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B315,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/localityterms</v>
@@ -12811,7 +12781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B317,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/locationkeyword</v>
@@ -12829,7 +12799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B318,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/locationname</v>
@@ -13706,13 +13676,13 @@
     <row r="363" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B363,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/metadata-uri</v>
+        <v>class/attribute/metadatauri</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>797</v>
+        <v>63</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1774</v>
+        <v>63</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>62</v>
@@ -13727,13 +13697,13 @@
     <row r="364" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B364,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/metadatauri</v>
+        <v>class/attribute/metadata-uri</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>63</v>
+        <v>797</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>63</v>
+        <v>1774</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>62</v>
@@ -13745,7 +13715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B365,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/methodology</v>
@@ -13817,7 +13787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B369,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/mineoropeningtype</v>
@@ -13895,7 +13865,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B373,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/minhf-kjyr</v>
@@ -14615,7 +14585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B411,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/origindatetime</v>
@@ -14789,7 +14759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B420,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/otherlocationinformation</v>
@@ -14807,7 +14777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B421,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/otherlocationname</v>
@@ -14849,7 +14819,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B423,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/othername</v>
@@ -15110,200 +15080,200 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B436,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeability-md</v>
+        <v>class/attribute/permeabilityair-md</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1737</v>
+        <v>2037</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B437,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilityair-md</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>class/attribute/permeabilityaverage-m2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B438,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilityaverage-m2</v>
+        <v>class/attribute/permeabilityaveragemethod</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1929</v>
+        <v>1686</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B439,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilityaveragemethod</v>
+        <v>class/attribute/permeabilityaverageuncertainty</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1686</v>
+        <v>1836</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B440,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilityaverageuncertainty</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>4</v>
+        <v>class/attribute/permeabilitycommonlyobserved-md</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B441,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitycommonlyobserved-md</v>
+        <v>class/attribute/permeabilitygeometricmean-md</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B442,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitygeometricmean-md</v>
+        <v>class/attribute/permeabilityintrinsic-md</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B443,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilityintrinsic-md</v>
+        <v>class/attribute/permeabilitylocal-md</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H443" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B444,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitylocal-md</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D444" s="2"/>
-    </row>
-    <row r="445" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>class/attribute/permeabilitymax-m2</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B445,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitymax-m2</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>class/attribute/permeability-md</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B446,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitymean-md</v>
+        <v>class/attribute/permeabilitymeanintrinsic-md</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B447,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/permeabilitymeanintrinsic-md</v>
+        <v>class/attribute/permeabilitymean-md</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -15554,40 +15524,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B462,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/plss-meridians</v>
+        <v>class/attribute/plsslocation</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>45</v>
+        <v>1998</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1934</v>
+        <v>1999</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>17</v>
+        <v>2000</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B463,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/plsslocation</v>
+        <v>class/attribute/plss-meridians</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1998</v>
+        <v>45</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1999</v>
+        <v>1934</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>2000</v>
+        <v>44</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>4</v>
@@ -15686,40 +15656,40 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B468,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/porosityaverage-pct</v>
+        <v>class/attribute/porosityaveragemethod</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1935</v>
+        <v>1687</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B469,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/porosityaveragemethod</v>
+        <v>class/attribute/porosityaverage-pct</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1687</v>
+        <v>1935</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -15955,55 +15925,55 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B483,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/pressure-psi</v>
+        <v>class/attribute/pressurefinalshutin</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1938</v>
+        <v>1712</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B484,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/pressurefinalshutin</v>
+        <v>class/attribute/pressureinitialshutin</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B485,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/pressureinitialshutin</v>
+        <v>class/attribute/pressure-psi</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1710</v>
+        <v>1938</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>1366</v>
@@ -16851,7 +16821,7 @@
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
     </row>
-    <row r="530" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B530,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/samplecollectionmethod</v>
@@ -17038,7 +17008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B540,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/sampledgeologicunit</v>
@@ -17431,94 +17401,94 @@
     <row r="561" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B561,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-uncorrectedgradient</v>
+        <v>class/attribute/section-</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1843</v>
+        <v>1941</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1083</v>
+        <v>35</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G561" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B562,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-uncorrectedheatflow</v>
+        <v>class/attribute/sectionpart</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1844</v>
+        <v>1612</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1085</v>
+        <v>32</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G562" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B563,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/section-</v>
+        <v>class/attribute/seisometernetwork</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1941</v>
+        <v>1578</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>35</v>
+        <v>1089</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G563" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B564,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sectionpart</v>
+        <v>class/attribute/se-uncorrectedgradient</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1612</v>
+        <v>1843</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>32</v>
+        <v>1083</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G564" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B565,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/seisometernetwork</v>
+        <v>class/attribute/se-uncorrectedheatflow</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1578</v>
+        <v>1844</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>4</v>
@@ -17575,7 +17545,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B569,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/shutinpressuremethod</v>
@@ -17830,19 +17800,19 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B582,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specification-uri</v>
+        <v>class/attribute/specificationuri</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1945</v>
+        <v>1505</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>108</v>
+        <v>1115</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>61</v>
@@ -17851,19 +17821,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B583,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificationuri</v>
+        <v>class/attribute/specification-uri</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1505</v>
+        <v>1945</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1115</v>
+        <v>108</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>61</v>
@@ -17944,7 +17914,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B588,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/specificyield-percent</v>
@@ -18373,7 +18343,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B610,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/status</v>
@@ -18598,37 +18568,37 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B622,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperature-f</v>
+        <v>class/attribute/temperaturecorrection</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1816</v>
+        <v>1463</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1176</v>
+        <v>329</v>
       </c>
       <c r="F622" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B623,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperaturecorrection</v>
+        <v>class/attribute/temperature-f</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1463</v>
+        <v>1816</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>329</v>
+        <v>1176</v>
       </c>
       <c r="F623" s="1" t="s">
         <v>1366</v>
@@ -19011,7 +18981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B644,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/timesincecirculation</v>
@@ -19217,37 +19187,37 @@
     <row r="655" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A655" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B655,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertainty-mgal</v>
+        <v>class/attribute/uncertaintydensity</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1954</v>
+        <v>1234</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A656" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B656,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertaintydensity</v>
+        <v>class/attribute/uncertainty-mgal</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1234</v>
+        <v>1954</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="657" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -19322,37 +19292,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B661,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/units-pressure</v>
+        <v>class/attribute/unitsofmeasure</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1408</v>
+        <v>1418</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1245</v>
+        <v>391</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="662" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B662,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/units-temperature</v>
+        <v>class/attribute/unitspermeability</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1174</v>
+        <v>1249</v>
       </c>
       <c r="F662" s="1" t="s">
         <v>4</v>
@@ -19361,34 +19331,34 @@
     <row r="663" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B663,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsofmeasure</v>
+        <v>class/attribute/unitsporosity</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>391</v>
+        <v>1251</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B664,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitspermeability</v>
+        <v>class/attribute/units-pressure</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F664" s="1" t="s">
         <v>4</v>
@@ -19397,55 +19367,55 @@
     <row r="665" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B665,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsporosity</v>
+        <v>class/attribute/unitsstorage</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F665" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B666,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsstorage</v>
+        <v>class/attribute/unitstc</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="667" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B667,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitstc</v>
+        <v>class/attribute/units-temperature</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1255</v>
+        <v>1174</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -19529,40 +19499,40 @@
     <row r="672" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A672" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B672,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utm-e</v>
+        <v>class/attribute/utmdatumzone</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1955</v>
+        <v>1501</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E672" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E672" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H672" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B673,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utm-n</v>
+        <v>class/attribute/utm-e</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E673" s="1" t="s">
         <v>5</v>
@@ -19577,25 +19547,25 @@
     <row r="674" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B674,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utmdatumzone</v>
+        <v>class/attribute/utm-n</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1501</v>
+        <v>1956</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E674" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E674" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G674" s="1" t="s">
-        <v>3</v>
+        <v>1366</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -19619,7 +19589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B676,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/ventelevation</v>
@@ -20276,22 +20246,22 @@
   </sheetData>
   <autoFilter ref="H1:H706"/>
   <sortState ref="A2:I709">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="C1:C2 C4:C704 C708:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C705">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C706">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C707">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Classes/Attribute.xlsx
+++ b/Classes/Attribute.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="2052">
   <si>
     <t>class/data-type/term</t>
   </si>
@@ -6194,17 +6194,30 @@
   <si>
     <t>Township in PLSS grid, relative to reported baseline. Formatting and punctuation should be consistent for all locations referenced to the same baseline and meridian. Recommend adding leading '0's so that all number strings are the same length (typically 2 or occasionally 3 digits). Examples 01N, 112S, 001N.</t>
   </si>
+  <si>
+    <t>Township</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6260,40 +6273,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 12 3" xfId="2"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -6622,13 +6640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9661,7 +9679,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B154,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/elevationgl-ft</v>
@@ -9976,7 +9994,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B170,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/eqlogtemperaturebottom</v>
@@ -11309,7 +11327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B239,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/grossproductioncapacity</v>
@@ -11787,7 +11805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B265,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/hypocenteruri</v>
@@ -13715,7 +13733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B365,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/methodology</v>
@@ -15095,7 +15113,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B437,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/permeabilityaverage-m2</v>
@@ -16147,346 +16165,352 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B495,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/rank</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>969</v>
+        <v>class/attribute/range</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>2051</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>970</v>
+        <v>39</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B496,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/rechargeprocedure1</v>
+        <v>class/attribute/rank</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1688</v>
+        <v>969</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B497,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/rechargeprocedure2</v>
+        <v>class/attribute/rechargeprocedure1</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B498,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/recordname</v>
+        <v>class/attribute/rechargeprocedure2</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1672</v>
+        <v>1689</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G498" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B499,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/recurrenceinterval</v>
+        <v>class/attribute/recordname</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1700</v>
+        <v>1672</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G499" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B500,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/registrant</v>
+        <v>class/attribute/recurrenceinterval</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>979</v>
+        <v>1700</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B501,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/registranturi</v>
+        <v>class/attribute/registrant</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1429</v>
+        <v>979</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G501" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B502,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedfault</v>
+        <v>class/attribute/registranturi</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1760</v>
+        <v>1429</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B503,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedfaulturi</v>
+        <v>class/attribute/relatedfault</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G503" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B504,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedfeature</v>
+        <v>class/attribute/relatedfaulturi</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B505,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedheatflowintervalsuri</v>
+        <v>class/attribute/relatedfeature</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G505" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B506,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedresource</v>
+        <v>class/attribute/relatedheatflowintervalsuri</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1493</v>
+        <v>989</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>38</v>
+        <v>1763</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>37</v>
+        <v>990</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B507,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedresources</v>
+        <v>class/attribute/relatedresource</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>991</v>
+        <v>1493</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1764</v>
+        <v>38</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>992</v>
+        <v>37</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G507" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B508,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedsampleuri</v>
+        <v>class/attribute/relatedresources</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B509,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/relatedwaterchemistry</v>
+        <v>class/attribute/relatedsampleuri</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B510,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/releasedate</v>
+        <v>class/attribute/relatedwaterchemistry</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G510" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B511,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/remarks</v>
+        <v>class/attribute/releasedate</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>999</v>
+        <v>1730</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>58</v>
+        <v>998</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B512,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reportingperiod</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>138</v>
+        <v>class/attribute/remarks</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>4</v>
@@ -16495,55 +16519,52 @@
     <row r="513" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B513,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reportyear</v>
+        <v>class/attribute/reportingperiod</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B514,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/representativeageuri</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D514" s="1" t="s">
-        <v>1001</v>
+        <v>class/attribute/reportyear</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G514" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B515,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/representativelithologyuri</v>
+        <v>class/attribute/representativeageuri</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1641</v>
+        <v>1433</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>61</v>
@@ -16552,55 +16573,58 @@
         <v>60</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B516,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reservoirfavorability</v>
+        <v>class/attribute/representativelithologyuri</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1773</v>
+        <v>1641</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B517,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reservoirfavorabilitymethodology</v>
+        <v>class/attribute/reservoirfavorability</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1690</v>
+        <v>1773</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B518,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reservoirfavorabilityuncertainty</v>
+        <v>class/attribute/reservoirfavorabilitymethodology</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1840</v>
+        <v>1690</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>4</v>
@@ -16609,165 +16633,162 @@
     <row r="519" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B519,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reservoirname</v>
+        <v>class/attribute/reservoirfavorabilityuncertainty</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>2038</v>
+        <v>1008</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1576</v>
+        <v>1840</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G519" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B520,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/reservoiruri</v>
+        <v>class/attribute/reservoirname</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1011</v>
+        <v>2038</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1553</v>
+        <v>1576</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B521,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/resistivitymud</v>
+        <v>class/attribute/reservoiruri</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1984</v>
+        <v>1011</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1772</v>
+        <v>1553</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>836</v>
+        <v>1012</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="522" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B522,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/resistivitywater-ohm-m</v>
+        <v>class/attribute/resistivitymud</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1987</v>
+        <v>1772</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1985</v>
+        <v>836</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B523,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/resourcetype</v>
+        <v>class/attribute/resistivitywater-ohm-m</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1013</v>
+        <v>1986</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1599</v>
+        <v>1987</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1014</v>
+        <v>1985</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="524" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B524,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/resourcetype</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A525" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B525,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/result</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="C524" s="1" t="s">
+      <c r="C525" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="F524" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A525" s="1" t="s">
+      <c r="F525" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
         <v>2045</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="C525" s="1" t="s">
+      <c r="C526" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="D525" s="1" t="s">
+      <c r="D526" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E525" s="1" t="s">
+      <c r="E526" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F525" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="2" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B526,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/rockname</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D526" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="F526" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G526" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="527" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B527,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/rocktype</v>
+        <v>class/attribute/rockname</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>1017</v>
@@ -16776,215 +16797,219 @@
         <v>4</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B528,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/salinity</v>
+        <v>class/attribute/rocktype</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1019</v>
+        <v>1456</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="G528" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B529,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplecollectiondate</v>
+        <v>class/attribute/salinity</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1623</v>
+        <v>1019</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E529" s="1"/>
       <c r="F529" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G529" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G529" s="1"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
     </row>
-    <row r="530" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B530,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/samplecollectiondate</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A531" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B531,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/samplecollectionmethod</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C530" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="D530" s="1" t="s">
+      <c r="D531" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="F530" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A531" s="5" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B531,",",""),"_","-")," ","-"))</f>
+      <c r="F531" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A532" s="5" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B532,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/samplecureduration</v>
       </c>
-      <c r="B531" s="6" t="s">
+      <c r="B532" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="C531" s="6" t="s">
+      <c r="C532" s="6" t="s">
         <v>1665</v>
       </c>
-      <c r="D531" s="6" t="s">
+      <c r="D532" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="E531" s="6"/>
-      <c r="F531" s="6" t="s">
+      <c r="E532" s="6"/>
+      <c r="F532" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="G531" s="6"/>
-      <c r="H531" s="6"/>
-      <c r="I531" s="6"/>
-    </row>
-    <row r="532" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A532" s="2" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B532,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledensity</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D532" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G532" s="6"/>
+      <c r="H532" s="6"/>
+      <c r="I532" s="6"/>
+    </row>
+    <row r="533" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B533,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledensity-g-cc</v>
+        <v>class/attribute/sampledensity</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1939</v>
+        <v>1504</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B534,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledensityunits</v>
+        <v>class/attribute/sampledensity-g-cc</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1406</v>
+        <v>1939</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B535,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledepth</v>
+        <v>class/attribute/sampledensityunits</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1861</v>
+        <v>1406</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B536,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledepth-m</v>
+        <v>class/attribute/sampledepth</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="H536" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B537,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledfeatureagelabel</v>
+        <v>class/attribute/sampledepth-m</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1662</v>
+        <v>1862</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>84</v>
+        <v>1036</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B538,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledfeaturemaxage-ma</v>
+        <v>class/attribute/sampledfeatureagelabel</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1829</v>
+        <v>1662</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1039</v>
+        <v>84</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>4</v>
@@ -16993,484 +17018,484 @@
     <row r="539" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B539,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledfeatureminage-ma</v>
+        <v>class/attribute/sampledfeaturemaxage-ma</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B540,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledgeologicunit</v>
+        <v>class/attribute/sampledfeatureminage-ma</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1457</v>
+        <v>1830</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>571</v>
+        <v>1041</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B541,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledgeologicunitage</v>
+        <v>class/attribute/sampledgeologicunit</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B542,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledimensionsheight</v>
+        <v>class/attribute/sampledgeologicunitage</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1522</v>
+        <v>1458</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1045</v>
+        <v>567</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B543,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledimensionslength</v>
+        <v>class/attribute/sampledimensionsheight</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B544,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledimensionsunits</v>
+        <v>class/attribute/sampledimensionslength</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1416</v>
+        <v>1523</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B545,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampledimensionswidth</v>
+        <v>class/attribute/sampledimensionsunits</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1524</v>
+        <v>1416</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B546,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplemass-kg</v>
+        <v>class/attribute/sampledimensionswidth</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1940</v>
+        <v>1524</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B547,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplemeasurementdate</v>
+        <v>class/attribute/samplemass-kg</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1624</v>
+        <v>1940</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G547" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B548,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampleshape</v>
+        <v>class/attribute/samplemeasurementdate</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1794</v>
+        <v>1624</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B549,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampletemperature</v>
+        <v>class/attribute/sampleshape</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1813</v>
+        <v>1794</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B550,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampletemperatureunits</v>
+        <v>class/attribute/sampletemperature</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1417</v>
+        <v>1813</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B551,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sampletype</v>
+        <v>class/attribute/sampletemperatureunits</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1655</v>
+        <v>1417</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B552,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplingfeaturename</v>
+        <v>class/attribute/sampletype</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1577</v>
+        <v>1655</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>498</v>
+        <v>1064</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G552" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B553,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplingfeaturetype</v>
+        <v>class/attribute/samplingfeaturename</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1600</v>
+        <v>1577</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1067</v>
+        <v>498</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B554,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/samplingfeatureuri</v>
+        <v>class/attribute/samplingfeaturetype</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1554</v>
+        <v>1600</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G554" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B555,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/saturatedsampleconductivity</v>
+        <v>class/attribute/samplingfeatureuri</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1825</v>
+        <v>1554</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B556,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/saturationfluid</v>
+        <v>class/attribute/saturatedsampleconductivity</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1656</v>
+        <v>1825</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B557,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/scannedfileurl</v>
+        <v>class/attribute/saturationfluid</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1074</v>
+        <v>1656</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G557" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B558,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-conductivity</v>
+        <v>class/attribute/scannedfileurl</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1841</v>
+        <v>1074</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B559,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-correctedgradient</v>
+        <v>class/attribute/se-conductivity</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1891</v>
+        <v>1841</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B560,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-correctedheatflow</v>
+        <v>class/attribute/se-correctedgradient</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1842</v>
+        <v>1891</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B561,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/section-</v>
+        <v>class/attribute/se-correctedheatflow</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1941</v>
+        <v>1842</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>35</v>
+        <v>1081</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G561" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B562,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sectionpart</v>
+        <v>class/attribute/section-</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1612</v>
+        <v>1941</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>694</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B563,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/seisometernetwork</v>
+        <v>class/attribute/sectionpart</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1578</v>
+        <v>1612</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1089</v>
+        <v>32</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G563" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B564,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-uncorrectedgradient</v>
+        <v>class/attribute/seisometernetwork</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1843</v>
+        <v>1578</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>4</v>
@@ -17479,64 +17504,64 @@
     <row r="565" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B565,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/se-uncorrectedheatflow</v>
+        <v>class/attribute/se-uncorrectedgradient</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B566,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/shape</v>
+        <v>class/attribute/se-uncorrectedheatflow</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1058</v>
+        <v>1084</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1058</v>
+        <v>1844</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1085</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B567,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/shape-area</v>
+        <v>class/attribute/shape</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1091</v>
+        <v>1058</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1942</v>
+        <v>1058</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F567" s="1" t="s">
-        <v>1366</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="568" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B568,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/shape-length</v>
+        <v>class/attribute/shape-area</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>1092</v>
@@ -17545,229 +17570,226 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B569,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/shutinpressuremethod</v>
+        <v>class/attribute/shape-length</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1692</v>
+        <v>1943</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B570,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/siteheatflow</v>
+        <v>class/attribute/shutinpressuremethod</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1616</v>
+        <v>1692</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B571,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sitelocationname</v>
+        <v>class/attribute/siteheatflow</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1579</v>
+        <v>1616</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>498</v>
+        <v>1097</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G571" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B572,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sitelocationuri</v>
+        <v>class/attribute/sitelocationname</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1670</v>
+        <v>1579</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>108</v>
+        <v>498</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B573,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sitename</v>
+        <v>class/attribute/sitelocationuri</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1580</v>
+        <v>1670</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B574,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sitevaluemethod</v>
+        <v>class/attribute/sitename</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1693</v>
+        <v>1580</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1102</v>
+        <v>498</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G574" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B575,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/slipaccumulationinterval</v>
+        <v>class/attribute/sitevaluemethod</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1509</v>
+        <v>1693</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B576,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sliprate</v>
+        <v>class/attribute/slipaccumulationinterval</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1854</v>
+        <v>1509</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B577,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/source</v>
+        <v>class/attribute/sliprate</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>31</v>
+        <v>1105</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>31</v>
+        <v>1854</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>30</v>
+        <v>1106</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G577" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B578,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sourcecitation</v>
+        <v>class/attribute/source</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1107</v>
+        <v>31</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1729</v>
+        <v>31</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B579,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sourcecitationuri</v>
+        <v>class/attribute/sourcecitation</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1795</v>
+        <v>1729</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1109</v>
+        <v>30</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G579" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B580,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/sourceuri</v>
+        <v>class/attribute/sourcecitationuri</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>1109</v>
@@ -17779,61 +17801,61 @@
         <v>60</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B581,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/spacingavg-ft</v>
+        <v>class/attribute/sourceuri</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1944</v>
+        <v>1796</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1366</v>
+        <v>61</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B582,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificationuri</v>
+        <v>class/attribute/spacingavg-ft</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1505</v>
+        <v>1944</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>61</v>
+        <v>1366</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B583,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specification-uri</v>
+        <v>class/attribute/specificationuri</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1945</v>
+        <v>1505</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>108</v>
+        <v>1115</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>61</v>
@@ -17842,1164 +17864,1167 @@
         <v>60</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B584,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificheat</v>
+        <v>class/attribute/specification-uri</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1814</v>
+        <v>1945</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1117</v>
+        <v>108</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B585,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificheat-kjkgc</v>
+        <v>class/attribute/specificheat</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1798</v>
+        <v>1814</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B586,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificheatunits</v>
+        <v>class/attribute/specificheat-kjkgc</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1405</v>
+        <v>1798</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B587,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificstorage</v>
+        <v>class/attribute/specificheatunits</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B588,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specificyield-percent</v>
+        <v>class/attribute/specificstorage</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1946</v>
+        <v>1426</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B589,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimencollectiondate</v>
+        <v>class/attribute/specificyield-percent</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1625</v>
+        <v>1946</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>190</v>
+        <v>1125</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G589" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B590,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimencollectionmethod</v>
+        <v>class/attribute/specimencollectiondate</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1694</v>
+        <v>1625</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1128</v>
+        <v>190</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B591,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimencollector</v>
+        <v>class/attribute/specimencollectionmethod</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1784</v>
+        <v>1694</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B592,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimencollectoruri</v>
+        <v>class/attribute/specimencollector</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1428</v>
+        <v>1784</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G592" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B593,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimencuration</v>
+        <v>class/attribute/specimencollectoruri</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1635</v>
+        <v>1428</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="594" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B594,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimendescription</v>
+        <v>class/attribute/specimencuration</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1530</v>
+        <v>1635</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B595,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimenid</v>
+        <v>class/attribute/specimendescription</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B596,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimenlabel</v>
+        <v>class/attribute/specimenid</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1581</v>
+        <v>1555</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B597,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimenmass-kg</v>
+        <v>class/attribute/specimenlabel</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1947</v>
+        <v>1581</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B598,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimentype</v>
+        <v>class/attribute/specimenmass-kg</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1143</v>
+        <v>1947</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>0</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="599" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B599,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/specimenuri</v>
+        <v>class/attribute/specimentype</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1556</v>
+        <v>1143</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G599" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B600,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/springname</v>
+        <v>class/attribute/specimenuri</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1582</v>
+        <v>1556</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>498</v>
+        <v>1146</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B601,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/spuddate</v>
+        <v>class/attribute/springname</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1538</v>
+        <v>1582</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1149</v>
+        <v>498</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B602,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/srs</v>
+        <v>class/attribute/spuddate</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>27</v>
+        <v>1148</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>27</v>
+        <v>1538</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E602" s="1" t="s">
-        <v>5</v>
+        <v>1149</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B603,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/standarddeviation</v>
+        <v>class/attribute/srs</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>2006</v>
+        <v>27</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2005</v>
+        <v>27</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>2007</v>
+        <v>26</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>2004</v>
+        <v>5</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I603" s="1" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B604,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/standardmagnitudeerror</v>
+        <v>class/attribute/standarddeviation</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1150</v>
+        <v>2006</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1845</v>
+        <v>2005</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1151</v>
+        <v>2007</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>2004</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B605,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/startreportinterval</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>144</v>
+        <v>class/attribute/standardmagnitudeerror</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>1151</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B606,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/state</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D606" s="1" t="s">
-        <v>24</v>
+        <v>class/attribute/startreportinterval</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G606" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B607,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/stationidentifier</v>
+        <v>class/attribute/state</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1152</v>
+        <v>25</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1788</v>
+        <v>25</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1153</v>
+        <v>24</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B608,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/stationname</v>
+        <v>class/attribute/stationidentifier</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1583</v>
+        <v>1788</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G608" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B609,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/statisticalprocedure</v>
-      </c>
-      <c r="B609" s="2" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C609" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D609" s="2" t="s">
-        <v>1</v>
+        <v>class/attribute/stationname</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>1155</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B610,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/status</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C610" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D610" s="1" t="s">
-        <v>21</v>
+        <v>class/attribute/statisticalprocedure</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B611,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/statusdate</v>
+        <v>class/attribute/status</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1494</v>
+        <v>22</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G611" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B612,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/stimulation</v>
+        <v>class/attribute/statusdate</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1156</v>
+        <v>1494</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1156</v>
+        <v>163</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1157</v>
+        <v>20</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B613,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/surfacetemperature</v>
+        <v>class/attribute/stimulation</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1815</v>
+        <v>1156</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B614,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/symbol</v>
+        <v>class/attribute/surfacetemperature</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1160</v>
+        <v>1815</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B615,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/systemtype</v>
+        <v>class/attribute/symbol</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1720</v>
+        <v>1160</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B616,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/targetfeatureuri</v>
+        <v>class/attribute/systemtype</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1557</v>
+        <v>1720</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G616" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B617,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/targetformation</v>
+        <v>class/attribute/targetfeatureuri</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1584</v>
+        <v>1557</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B618,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/targetrockname</v>
+        <v>class/attribute/targetformation</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1459</v>
+        <v>1584</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F618" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G618" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="619" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B619,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/targetrockvolume-m3</v>
+        <v>class/attribute/targetrockname</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1948</v>
+        <v>1459</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="620" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B620,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/tectonicprovince</v>
+        <v>class/attribute/targetrockvolume-m3</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1460</v>
+        <v>1948</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B621,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperature</v>
+        <v>class/attribute/tectonicprovince</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>233</v>
+        <v>1172</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>233</v>
+        <v>1460</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B622,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperaturecorrection</v>
+        <v>class/attribute/temperature</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1177</v>
+        <v>233</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1463</v>
+        <v>233</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>329</v>
+        <v>1174</v>
       </c>
       <c r="F622" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B623,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperature-f</v>
+        <v>class/attribute/temperaturecorrection</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1816</v>
+        <v>1463</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1176</v>
+        <v>329</v>
       </c>
       <c r="F623" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B624,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperatureflowing</v>
+        <v>class/attribute/temperature-f</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="625" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B625,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperaturemax-c</v>
+        <v>class/attribute/temperatureflowing</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="626" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B626,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperaturemeasuretype</v>
+        <v>class/attribute/temperaturemax-c</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>1722</v>
+        <v>1819</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B627,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/temperaturemin-c</v>
+        <v>class/attribute/temperaturemeasuretype</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1818</v>
+        <v>1722</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B628,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/temperaturemin-c</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A629" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B629,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/temperatureunits</v>
       </c>
-      <c r="B628" s="1" t="s">
+      <c r="B629" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C628" s="1" t="s">
+      <c r="C629" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D628" s="1" t="s">
+      <c r="D629" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="F628" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="629" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A629" s="5" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B629,",",""),"_","-")," ","-"))</f>
+      <c r="F629" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A630" s="5" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B630,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/tempmeasurementdatetime</v>
       </c>
-      <c r="B629" s="6" t="s">
+      <c r="B630" s="6" t="s">
         <v>1968</v>
       </c>
-      <c r="C629" s="6" t="s">
+      <c r="C630" s="6" t="s">
         <v>1969</v>
       </c>
-      <c r="D629" s="6" t="s">
+      <c r="D630" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E629" s="6"/>
-      <c r="F629" s="6" t="s">
+      <c r="E630" s="6"/>
+      <c r="F630" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G629" s="6" t="s">
+      <c r="G630" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H629" s="6"/>
-    </row>
-    <row r="630" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A630" s="2" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B630,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/tempmeasurementprocedure</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F630" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="H630" s="6"/>
+    </row>
+    <row r="631" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A631" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B631,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/terraincorrection-mgal</v>
+        <v>class/attribute/tempmeasurementprocedure</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1949</v>
+        <v>1716</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A632" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B632,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testdatetime</v>
+        <v>class/attribute/terraincorrection-mgal</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1515</v>
+        <v>1190</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>1374</v>
+        <v>1949</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G632" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A633" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B633,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testfluid</v>
+        <v>class/attribute/testdatetime</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1193</v>
+        <v>1515</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>1657</v>
+        <v>1374</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B634,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testname</v>
+        <v>class/attribute/testfluid</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G634" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B635,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testnumber</v>
+        <v>class/attribute/testname</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1644</v>
+        <v>1673</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F635" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="636" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G635" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B636,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testoperator</v>
+        <v>class/attribute/testnumber</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1785</v>
+        <v>1644</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F636" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G636" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="637" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B637,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testtype</v>
+        <v>class/attribute/testoperator</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1723</v>
+        <v>1785</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="638" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B638,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/testtypedescription</v>
+        <v>class/attribute/testtype</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B639,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/thermalconductivityunits</v>
+        <v>class/attribute/testtypedescription</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1403</v>
+        <v>1717</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F639" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B640,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/thermaldiffusivity</v>
+        <v>class/attribute/thermalconductivityunits</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>1827</v>
+        <v>1403</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B641,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/thermalspringuri</v>
+        <v>class/attribute/thermaldiffusivity</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1558</v>
+        <v>1827</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>108</v>
+        <v>1208</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G641" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B642,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/timefinalshutin-min</v>
+        <v>class/attribute/thermalspringuri</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1950</v>
+        <v>1558</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1211</v>
+        <v>108</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1366</v>
+        <v>61</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="643" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B643,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/timeinitialshutin-min</v>
+        <v>class/attribute/timefinalshutin-min</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="644" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B644,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/timesincecirculation</v>
+        <v>class/attribute/timeinitialshutin-min</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1510</v>
+        <v>1951</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B645,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/timesincecirculation</v>
@@ -19008,10 +19033,10 @@
         <v>1214</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F645" s="1" t="s">
         <v>1366</v>
@@ -19020,150 +19045,151 @@
     <row r="646" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B646,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/toploggedinterval-ft</v>
+        <v>class/attribute/timesincecirculation</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1952</v>
+        <v>1511</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F646" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="G646" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="647" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B647,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/totalmineheat-kj</v>
+        <v>class/attribute/toploggedinterval-ft</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F647" s="1" t="s">
         <v>1366</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="648" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B648,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/totalslip</v>
+        <v>class/attribute/totalmineheat-kj</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1506</v>
+        <v>1953</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="649" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B649,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/transmissivity</v>
+        <v>class/attribute/totalslip</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1223</v>
+        <v>1506</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B650,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/transmissivity-units</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>1402</v>
+        <v>class/attribute/township</v>
+      </c>
+      <c r="B650" s="9" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C650" s="9" t="s">
+        <v>2050</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1226</v>
+        <v>2049</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F650" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G650" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B651,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/trap</v>
+        <v>class/attribute/transmissivity</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="652" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B652,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/trueverticaldepth</v>
+        <v>class/attribute/transmissivity-units</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1532</v>
+        <v>1402</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G652" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="653" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A653" s="1" t="s">
-        <v>2047</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B653,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/trap</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>2048</v>
+        <v>1227</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>2048</v>
+        <v>1227</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>2049</v>
-      </c>
-      <c r="E653" s="1" t="s">
-        <v>17</v>
+        <v>1228</v>
       </c>
       <c r="F653" s="1" t="s">
         <v>4</v>
@@ -19172,157 +19198,162 @@
     <row r="654" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A654" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B654,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertainty</v>
+        <v>class/attribute/trueverticaldepth</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1231</v>
+        <v>1532</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1230</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="655" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A655" s="2" t="str">
-        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B655,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertaintydensity</v>
+        <v>1366</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>2047</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1234</v>
+        <v>2048</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1234</v>
+        <v>2048</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1235</v>
+        <v>2049</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F655" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A656" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B656,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertainty-mgal</v>
+        <v>class/attribute/uncertainty</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1954</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A657" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B657,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertaintyspecificheat</v>
+        <v>class/attribute/uncertaintydensity</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1846</v>
+        <v>1234</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F657" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A658" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B658,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertaintytc</v>
+        <v>class/attribute/uncertainty-mgal</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1847</v>
+        <v>1954</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="659" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B659,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/uncertaintythermaldiffusivity</v>
+        <v>class/attribute/uncertaintyspecificheat</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F659" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B660,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/units</v>
+        <v>class/attribute/uncertaintytc</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1418</v>
+        <v>1847</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F660" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B661,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsofmeasure</v>
+        <v>class/attribute/uncertaintythermaldiffusivity</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1418</v>
+        <v>1848</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>391</v>
+        <v>1241</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B662,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitspermeability</v>
+        <v>class/attribute/units</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F662" s="1" t="s">
         <v>4</v>
@@ -19331,34 +19362,34 @@
     <row r="663" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B663,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsporosity</v>
+        <v>class/attribute/unitsofmeasure</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1251</v>
+        <v>391</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B664,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/units-pressure</v>
+        <v>class/attribute/unitspermeability</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="F664" s="1" t="s">
         <v>4</v>
@@ -19367,888 +19398,924 @@
     <row r="665" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B665,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsstorage</v>
+        <v>class/attribute/unitsporosity</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F665" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B666,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitstc</v>
+        <v>class/attribute/units-pressure</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="667" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B667,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/units-temperature</v>
+        <v>class/attribute/unitsstorage</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1174</v>
+        <v>1253</v>
       </c>
       <c r="F667" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B668,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/unitsthermaldiffusivity</v>
+        <v>class/attribute/unitstc</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="669" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B669,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/updatedate</v>
+        <v>class/attribute/units-temperature</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1626</v>
+        <v>1409</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>16</v>
+        <v>1174</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G669" s="1" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A670" s="5" t="str">
+      <c r="A670" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B670,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/updatetimestamp</v>
-      </c>
-      <c r="B670" s="6" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C670" s="6" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D670" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E670" s="6"/>
-      <c r="F670" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G670" s="6"/>
-      <c r="H670" s="6"/>
+        <v>class/attribute/unitsthermaldiffusivity</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="671" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B671,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/useapplication</v>
+        <v>class/attribute/updatedate</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>14</v>
+        <v>1258</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1502</v>
+        <v>1626</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="672" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A672" s="2" t="str">
+      <c r="A672" s="5" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B672,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utmdatumzone</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C672" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D672" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E672" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F672" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G672" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>class/attribute/updatetimestamp</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C672" s="6" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D672" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E672" s="6"/>
+      <c r="F672" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G672" s="6"/>
+      <c r="H672" s="6"/>
     </row>
     <row r="673" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B673,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utm-e</v>
+        <v>class/attribute/useapplication</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>1955</v>
+        <v>1502</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E673" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H673" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B674,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utm-n</v>
+        <v>class/attribute/utmdatumzone</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1956</v>
+        <v>1501</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E674" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E674" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H674" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B675,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/utmzone</v>
+        <v>class/attribute/utm-e</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1259</v>
+        <v>12</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1797</v>
+        <v>1955</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G675" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="676" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B676,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/ventelevation</v>
+        <v>class/attribute/utm-n</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1260</v>
+        <v>10</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1863</v>
+        <v>1956</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1261</v>
+        <v>9</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F676" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="677" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="H676" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B677,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/verticalconductivity-ft-day</v>
+        <v>class/attribute/utmzone</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>1957</v>
+        <v>1797</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1263</v>
+        <v>6</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H677" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="678" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A678" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B678,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/verticaldatum</v>
+        <v>class/attribute/ventelevation</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>353</v>
+        <v>1261</v>
       </c>
       <c r="F678" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A679" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B679,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/verticalextentmax-m</v>
+        <v>class/attribute/verticalconductivity-ft-day</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1866</v>
+        <v>1957</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F679" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="680" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H679" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B680,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/verticalextentmin-m</v>
+        <v>class/attribute/verticaldatum</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1268</v>
+        <v>353</v>
       </c>
       <c r="F680" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B681,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/verticalunits</v>
+        <v>class/attribute/verticalextentmax-m</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1419</v>
+        <v>1866</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="682" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B682,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/viscosity</v>
+        <v>class/attribute/verticalextentmin-m</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>1271</v>
+        <v>1865</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="683" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B683,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/volcanicgroup</v>
+        <v>class/attribute/verticalunits</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1585</v>
+        <v>1419</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F683" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B684,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/volcventname</v>
+        <v>class/attribute/viscosity</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>1586</v>
+        <v>1271</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>498</v>
+        <v>1272</v>
       </c>
       <c r="F684" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G684" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="685" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B685,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/waterdensity-kgm3</v>
+        <v>class/attribute/volcanicgroup</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>1958</v>
+        <v>1585</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H685" s="1" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="686" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B686,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/waterdensity-mgl</v>
+        <v>class/attribute/volcventname</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1959</v>
+        <v>1586</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1279</v>
+        <v>498</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>1366</v>
+        <v>4</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="687" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A687" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B687,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/waterinjection-bbl</v>
+        <v>class/attribute/waterdensity-kgm3</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F687" s="1" t="s">
         <v>1366</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="688" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B688,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watermass-kg</v>
+        <v>class/attribute/waterdensity-mgl</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F688" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="H688" s="1" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="689" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B689,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watersaturation-pct</v>
+        <v>class/attribute/waterinjection-bbl</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F689" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B690,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watershedname</v>
+        <v>class/attribute/watermass-kg</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1587</v>
+        <v>1961</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G690" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A691" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B691,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watertabletemperature</v>
+        <v>class/attribute/watersaturation-pct</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1820</v>
+        <v>1962</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A692" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B692,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watertabletop</v>
+        <v>class/attribute/watershedname</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1885</v>
+        <v>1587</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="693" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A693" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B693,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/watertds-mgl</v>
+        <v>class/attribute/watertabletemperature</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1963</v>
+        <v>1820</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F693" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A694" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B694,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellborename</v>
+        <v>class/attribute/watertabletop</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>2040</v>
+        <v>1290</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1588</v>
+        <v>1885</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G694" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="695" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B695,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellboreshape</v>
+        <v>class/attribute/watertds-mgl</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>1592</v>
+        <v>1963</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G695" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="696" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A696" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B696,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellboreuri</v>
+        <v>class/attribute/wellborename</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1297</v>
+        <v>2040</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1789</v>
+        <v>1588</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G696" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B697,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellcount</v>
+        <v>class/attribute/wellboreshape</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>840</v>
+        <v>1592</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B698,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/welldrilldate</v>
+        <v>class/attribute/wellboreuri</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>1777</v>
+        <v>1789</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G698" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="699" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B699,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/welldrilldatetype</v>
+        <v>class/attribute/wellcount</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>1520</v>
+        <v>840</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="700" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B700,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellheaderuri</v>
+        <v>class/attribute/welldrilldate</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G700" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="701" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A701" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B701,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/wellname</v>
+        <v>class/attribute/welldrilldatetype</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>1589</v>
+        <v>1520</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F701" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G701" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="702" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="702" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A702" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B702,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/welltype</v>
+        <v>class/attribute/wellheaderuri</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>1601</v>
+        <v>1790</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G702" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="703" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A703" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B703,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/width-m</v>
+        <v>class/attribute/wellname</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>1964</v>
+        <v>1589</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="704" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A704" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B704,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/yearcommissioned</v>
-      </c>
-      <c r="B704" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D704" s="2" t="s">
-        <v>53</v>
+        <v>class/attribute/welltype</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>1310</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="705" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A705" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B705,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/yearsinproduction</v>
+        <v>class/attribute/width-m</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>1627</v>
+        <v>1964</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="706" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A706" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B706,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/youngerageuri</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C706" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D706" s="1" t="s">
-        <v>1316</v>
+        <v>class/attribute/yearcommissioned</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G706" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="707" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A707" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B707,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/youngestage</v>
+        <v>class/attribute/yearsinproduction</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>1432</v>
+        <v>1627</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="708" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B708,",",""),"_","-")," ","-"))</f>
-        <v>class/attribute/youngestradiometricage-ma</v>
+        <v>class/attribute/youngerageuri</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F708" s="1" t="s">
-        <v>1366</v>
+        <v>61</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="709" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A709" s="2" t="str">
         <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B709,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/youngestage</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A710" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B710,",",""),"_","-")," ","-"))</f>
+        <v>class/attribute/youngestradiometricage-ma</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A711" s="2" t="str">
+        <f>"class/attribute/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B711,",",""),"_","-")," ","-"))</f>
         <v>class/attribute/zip</v>
       </c>
-      <c r="B709" s="1" t="s">
+      <c r="B711" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C709" s="1" t="s">
+      <c r="C711" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D709" s="1" t="s">
+      <c r="D711" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="F709" s="1" t="s">
+      <c r="F711" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G709" s="1" t="s">
+      <c r="G711" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="H1:H706"/>
-  <sortState ref="A2:I709">
+  <sortState ref="A2:I711">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C1:C2 C4:C704 C708:C1048576">
+  <conditionalFormatting sqref="C1:C2 C4:C704 C708:C709 C711:C1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
